--- a/medicine/Enfance/Schtroumpf_!/Schtroumpf_!.xlsx
+++ b/medicine/Enfance/Schtroumpf_!/Schtroumpf_!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Schtroumpf ! est un périodique de bande dessinée mensuel créé le 18 octobre 1989 par Peyo. Le journal est créé pour recevoir les histoires des Schtroumpfs après le départ de Peyo des éditions Dupuis et du journal Spirou. Trente-quatre numéros ont paru, chacun contenant une bande dessinée inédite des Schtroumpfs. Ces histoires seront pour la plupart reprises dans les albums L'Aéroschtroumpf et L'Étrange Réveil du Schtroumpf paresseux de la série principale et dans la collection 3 Histoires de Schtroumpfs aux éditions Le Lombard.
